--- a/Data_Scraping_Project/web_scraping.xlsx
+++ b/Data_Scraping_Project/web_scraping.xlsx
@@ -1,75 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\68228\Documents\UiPath\Data_Scraping_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81200670-89B7-471A-84A1-DEFAF358A5C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="40860" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="40860" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <x:si>
+    <x:t>Help
+Search results
+Jump to navigation
+Jump to search
+	Search
+Results 1 – 20 of 104,205
+Advanced search:Sort by relevance
+Search in:(Article)
+There is a page named "Economics" on Wikipedia
+Economics
+Economics (/ˌɛkəˈnɒmɪks, ˌiːkə-/) is the social science that studies the production, distribution, and consumption of goods and services. Economics focuses...
+189 KB (19,498 words) - 06:04, 28 December 2022
+Keynesian economics
+Keynesian economics (/ˈkeɪnziən/ KAYN-zee-ən; sometimes Keynesianism, named after British economist John Maynard Keynes) are the various macroeconomic...
+103 KB (12,741 words) - 03:28, 13 December 2022
+Managerial economics
+Managerial economics is a branch of economics involving the application of economic methods in the managerial decision-making process. Economics is the study...
+54 KB (5,778 words) - 02:35, 6 December 2022
+Behavioral economics
+Behavioral economics studies the effects of psychological, cognitive, emotional, cultural and social factors on the decisions of individuals or institutions...
+118 KB (13,004 words) - 08:44, 9 December 2022
+Business economics
+Business economics is a field in applied economics which uses economic theory and quantitative methods to analyze business enterprises and the factors...
+11 KB (1,290 words) - 16:15, 14 December 2022
+Labour economics
+Labour economics, or labor economics, seeks to understand the functioning and dynamics of the markets for wage labour. Labour is a commodity that is supplied...
+44 KB (5,732 words) - 19:17, 16 October 2022
+Home economics
+Home economics, also called domestic science or family and consumer sciences, is a subject concerning human development, personal and family finances...
+43 KB (4,639 words) - 10:56, 28 December 2022
+Neoclassical economics
+Neoclassical economics is an approach to economics in which the production, consumption and valuation (pricing) of goods and services are observed as...
+52 KB (6,645 words) - 14:00, 6 November 2022
+Agricultural economics
+Agricultural economics is an applied field of economics concerned with the application of economic theory in optimizing the production and distribution...
+18 KB (1,916 words) - 22:42, 10 November 2022
+Socialist economics
+Socialist economics comprises the economic theories, practices and norms of hypothetical and existing socialist economic systems. A socialist economic...
+150 KB (19,664 words) - 19:31, 6 October 2022
+London School of Economics
+The London School of Economics and Political Science (LSE) is a public research university located in London, England and a constituent college of the...
+141 KB (13,660 words) - 06:51, 27 December 2022
+Net (economics)
+after accounting for the sum or difference of two or more variables. In economics, it is frequently used to imply the remaining value after accounting for...
+2 KB (288 words) - 15:45, 8 March 2022
+Production (economics)
+of economics that focuses on production is called production theory, and it is closely related to the consumption (or consumer) theory of economics. The...
+45 KB (6,260 words) - 13:51, 21 December 2022
+M. M. K. College (redirect from Smt MMK College of Commerce &amp; Economics)
+The Shrimati Mithibai Motiram Kundnani College of Commerce &amp; Economics, commonly known as M. M. K. College (Sindhi: مٺِي ٻائي مُوتيرام ڪُندناڻِي ڪاليج)...
+2 KB (110 words) - 19:30, 5 November 2022
+Environmental economics
+Environmental economics is a sub-field of economics concerned with environmental issues. It has become a widely studied subject due to growing environmental...
+35 KB (3,980 words) - 06:53, 19 December 2022
+International economics
+International economics is concerned with the effects upon economic activity from international differences in productive resources and consumer preferences...
+52 KB (6,508 words) - 11:25, 11 December 2022
+Bachelor of Economics
+The Bachelor of Economics (BEc or BEcon), or the "Bachelor of Applied Economics", is a bachelor's degree awarded by many universities and colleges for...
+27 KB (1,667 words) - 21:04, 25 December 2022
+Welfare economics
+Welfare economics is a branch of economics that uses microeconomic techniques to evaluate well-being (welfare) at the aggregate (economy-wide) level. Attempting...
+24 KB (3,012 words) - 13:06, 24 May 2022
+Heterodox economics
+and anarchist economics. Economics may be called orthodox or conventional economics by its critics. Alternatively, mainstream economics deals with the...
+31 KB (3,082 words) - 13:53, 20 December 2022
+Organizational economics
+Organizational economics (also referred to as economics of organization) involves the use of economic logic and methods to understand the existence, nature...
+2 KB (187 words) - 00:21, 21 October 2021
+Word definitions from Wiktionary
+economics
+See also: econòmics English Wikipedia has an article on: economics Wikipedia œconomics (archaic) From economy, from Latin oeconomia, from Ancient Greek
+See all results
+Texts from Wikisource
+1911 Encyclopædia Britannica/Economics
+Volume 8 Economics by William Albert Samuel Hewins 3506691911 Encyclopædia Britannica, Volume 8 — EconomicsWilliam Albert Samuel Hewins ​ECONOMICS (from
+See all results
+Quotes from Wikiquote
+Economics
+Economics is the social science that studies the production, distribution, and consumption of goods and services. The term economics comes from the Greek
+See all results
+Textbooks from Wikibooks
+Principles of Economics/Preface/To The Student
+comprehensive and easy-to-understand introduction to economics. This text will assume no background in economics. All you really need is an open mind and an interest
+See all results
+View (previous 20 | next 20) (20 | 50 | 100 | 250 | 500)</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,13 +448,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>